--- a/Challenge I/Gantt Diagramm.xlsx
+++ b/Challenge I/Gantt Diagramm.xlsx
@@ -20,49 +20,176 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">Name der Aufgabe</t>
   </si>
   <si>
-    <t xml:space="preserve">Treffen mit Kunde (Einführung in QM)</t>
+    <t xml:space="preserve">Treffen mit Kunde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einführung in Prozesse der Firma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begehung des Gebäudes / Rechenzentrum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Übergabe der Netzwerksimulation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absprache der Anforderungen </t>
   </si>
   <si>
     <t xml:space="preserve">Analyse der Anforderungen</t>
   </si>
   <si>
+    <t xml:space="preserve">2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besprechung mit beauftragten Team (inkl.Techniker) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anfertigung von logischen/psysischen Netzplan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suche nach passender Hardware zum bestehenden System </t>
+  </si>
+  <si>
     <t xml:space="preserve">Präsentation der Ergebnisse</t>
   </si>
   <si>
-    <t xml:space="preserve">mögliche Anpassungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorbereitung (Hardware bestellen etc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorkonfiguration der Hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einbau der Hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing nach Anforderungen</t>
+    <t xml:space="preserve">3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Präsentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absprache mit Kunden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mögliche Anpassungen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorbereitung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardware bestellen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorkonfiguration der Hardware </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durchführung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausbau von alter Hardware </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lieferung der Hardware </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auspacken / Verteilen der Hardware im Gebäude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einbau der Hardware </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feinkonfiguration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Routing testen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaos Engineering </t>
   </si>
   <si>
     <t xml:space="preserve">Produktivnahme des Systems</t>
   </si>
   <si>
     <t xml:space="preserve">Abschlussgespräch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sind Anforderungen erfüllt? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mögliche Anpassungen </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -84,17 +211,118 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="20"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFF10D0C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFE6E905"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFA6"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3465A4"/>
+        <bgColor rgb="FF3366FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF127622"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FFAFD095"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF10D0C"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6D6D"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E905"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800080"/>
+        <bgColor rgb="FF800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF819E"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,13 +359,89 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -149,6 +453,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF127622"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF6D6D"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFE6E905"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFFA6"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFFA6A6"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF77BC65"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF3465A4"/>
+      <rgbColor rgb="FFBF819E"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFF10D0C"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -157,67 +521,388 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ33" activeCellId="0" sqref="AJ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.49"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="O1" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="Q1" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="R1" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="S1" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="T1" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="U1" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="V1" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="W1" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="X1" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="Y1" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="Z1" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="AA1" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="AB1" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="AC1" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="AD1" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="AE1" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="AF1" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="AG1" s="2" t="n">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Challenge I/Gantt Diagramm.xlsx
+++ b/Challenge I/Gantt Diagramm.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">Name der Aufgabe</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vorbereitung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">4.1</t>
@@ -524,7 +527,7 @@
   <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ33" activeCellId="0" sqref="AJ33"/>
+      <selection pane="topLeft" activeCell="S16" activeCellId="0" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -768,13 +771,22 @@
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -783,10 +795,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -798,55 +810,55 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,23 +866,23 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,7 +890,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,23 +898,23 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Challenge I/Gantt Diagramm.xlsx
+++ b/Challenge I/Gantt Diagramm.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipal\OneDrive\Desktop\Rechnernetze-I_ITECH\Challenge I\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158E00C6-3593-4EE2-98AF-874420688651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,165 +25,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
-  <si>
-    <t xml:space="preserve">Name der Aufgabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treffen mit Kunde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+  <si>
+    <t>Name der Aufgabe</t>
+  </si>
+  <si>
+    <t>Treffen mit Kunde</t>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
   <si>
     <t xml:space="preserve">Einführung in Prozesse der Firma </t>
   </si>
   <si>
-    <t xml:space="preserve">1.2</t>
+    <t>1.2</t>
   </si>
   <si>
     <t xml:space="preserve">Begehung des Gebäudes / Rechenzentrum </t>
   </si>
   <si>
-    <t xml:space="preserve">1.3</t>
+    <t>1.3</t>
   </si>
   <si>
     <t xml:space="preserve">Übergabe der Netzwerksimulation </t>
   </si>
   <si>
-    <t xml:space="preserve">1.4</t>
+    <t>1.4</t>
   </si>
   <si>
     <t xml:space="preserve">Absprache der Anforderungen </t>
   </si>
   <si>
-    <t xml:space="preserve">Analyse der Anforderungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1</t>
+    <t>Analyse der Anforderungen</t>
+  </si>
+  <si>
+    <t>2.1</t>
   </si>
   <si>
     <t xml:space="preserve">Besprechung mit beauftragten Team (inkl.Techniker) </t>
   </si>
   <si>
-    <t xml:space="preserve">2.2</t>
+    <t>2.2</t>
   </si>
   <si>
     <t xml:space="preserve">Anfertigung von logischen/psysischen Netzplan </t>
   </si>
   <si>
-    <t xml:space="preserve">2.3</t>
+    <t>2.3</t>
   </si>
   <si>
     <t xml:space="preserve">Suche nach passender Hardware zum bestehenden System </t>
   </si>
   <si>
-    <t xml:space="preserve">Präsentation der Ergebnisse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1</t>
+    <t>Präsentation der Ergebnisse</t>
+  </si>
+  <si>
+    <t>3.1</t>
   </si>
   <si>
     <t xml:space="preserve">Präsentation </t>
   </si>
   <si>
-    <t xml:space="preserve">3.2</t>
+    <t>3.2</t>
   </si>
   <si>
     <t xml:space="preserve">Absprache mit Kunden </t>
   </si>
   <si>
-    <t xml:space="preserve">3.3</t>
+    <t>3.3</t>
   </si>
   <si>
     <t xml:space="preserve">mögliche Anpassungen </t>
   </si>
   <si>
-    <t xml:space="preserve">Vorbereitung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1</t>
+    <t>Vorbereitung</t>
+  </si>
+  <si>
+    <t>4.1</t>
   </si>
   <si>
     <t xml:space="preserve">Hardware bestellen </t>
   </si>
   <si>
-    <t xml:space="preserve">4.2</t>
+    <t>4.2</t>
   </si>
   <si>
     <t xml:space="preserve">Vorkonfiguration der Hardware </t>
   </si>
   <si>
-    <t xml:space="preserve">Durchführung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1</t>
+    <t>Durchführung</t>
+  </si>
+  <si>
+    <t>5.1</t>
   </si>
   <si>
     <t xml:space="preserve">Ausbau von alter Hardware </t>
   </si>
   <si>
-    <t xml:space="preserve">5.2</t>
+    <t>5.2</t>
   </si>
   <si>
     <t xml:space="preserve">Lieferung der Hardware </t>
   </si>
   <si>
-    <t xml:space="preserve">5.3</t>
+    <t>5.3</t>
   </si>
   <si>
     <t xml:space="preserve">Auspacken / Verteilen der Hardware im Gebäude </t>
   </si>
   <si>
-    <t xml:space="preserve">5.4</t>
+    <t>5.4</t>
   </si>
   <si>
     <t xml:space="preserve">Einbau der Hardware </t>
   </si>
   <si>
-    <t xml:space="preserve">5.5</t>
+    <t>5.5</t>
   </si>
   <si>
     <t xml:space="preserve">Feinkonfiguration </t>
   </si>
   <si>
-    <t xml:space="preserve">5.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokumentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1</t>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>6.1</t>
   </si>
   <si>
     <t xml:space="preserve">Routing testen </t>
   </si>
   <si>
-    <t xml:space="preserve">6.2</t>
+    <t>6.2</t>
   </si>
   <si>
     <t xml:space="preserve">Chaos Engineering </t>
   </si>
   <si>
-    <t xml:space="preserve">Produktivnahme des Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abschlussgespräch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1</t>
+    <t>Produktivnahme des Systems</t>
+  </si>
+  <si>
+    <t>Abschlussgespräch</t>
+  </si>
+  <si>
+    <t>8.1</t>
   </si>
   <si>
     <t xml:space="preserve">Sind Anforderungen erfüllt? </t>
   </si>
   <si>
-    <t xml:space="preserve">8.2</t>
+    <t>8.2</t>
   </si>
   <si>
     <t xml:space="preserve">Mögliche Anpassungen </t>
@@ -187,31 +189,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="20"/>
@@ -229,8 +215,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,18 +255,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFE6E905"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFA6"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF3465A4"/>
         <bgColor rgb="FF3366FF"/>
       </patternFill>
@@ -287,49 +267,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF127622"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF77BC65"/>
-        <bgColor rgb="FFAFD095"/>
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF10D0C"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6D6D"/>
-        <bgColor rgb="FFFF6600"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6E905"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800080"/>
-        <bgColor rgb="FF800080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBF819E"/>
-        <bgColor rgb="FF808080"/>
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -337,125 +305,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -514,128 +395,436 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S16" activeCellId="0" sqref="S16"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.49"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:33" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="C1" s="2">
         <v>45231</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="2">
         <v>45232</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="E1" s="2">
         <v>45233</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="F1" s="2">
         <v>45236</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="G1" s="2">
         <v>45237</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="H1" s="2">
         <v>45238</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="I1" s="2">
         <v>45239</v>
       </c>
-      <c r="J1" s="2" t="n">
+      <c r="J1" s="2">
         <v>45240</v>
       </c>
-      <c r="K1" s="2" t="n">
+      <c r="K1" s="2">
         <v>45243</v>
       </c>
-      <c r="L1" s="2" t="n">
+      <c r="L1" s="2">
         <v>45244</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="M1" s="2">
         <v>45245</v>
       </c>
-      <c r="N1" s="2" t="n">
+      <c r="N1" s="2">
         <v>45246</v>
       </c>
-      <c r="O1" s="2" t="n">
+      <c r="O1" s="2">
         <v>45247</v>
       </c>
-      <c r="P1" s="2" t="n">
+      <c r="P1" s="2">
         <v>45250</v>
       </c>
-      <c r="Q1" s="2" t="n">
+      <c r="Q1" s="2">
         <v>45251</v>
       </c>
-      <c r="R1" s="2" t="n">
+      <c r="R1" s="2">
         <v>45252</v>
       </c>
-      <c r="S1" s="2" t="n">
+      <c r="S1" s="2">
         <v>45253</v>
       </c>
-      <c r="T1" s="2" t="n">
+      <c r="T1" s="2">
         <v>45254</v>
       </c>
-      <c r="U1" s="2" t="n">
+      <c r="U1" s="2">
         <v>45257</v>
       </c>
-      <c r="V1" s="2" t="n">
+      <c r="V1" s="2">
         <v>45258</v>
       </c>
-      <c r="W1" s="2" t="n">
+      <c r="W1" s="2">
         <v>45259</v>
       </c>
-      <c r="X1" s="2" t="n">
+      <c r="X1" s="2">
         <v>45260</v>
       </c>
-      <c r="Y1" s="2" t="n">
+      <c r="Y1" s="2">
         <v>45261</v>
       </c>
-      <c r="Z1" s="2" t="n">
+      <c r="Z1" s="2">
         <v>45264</v>
       </c>
-      <c r="AA1" s="2" t="n">
+      <c r="AA1" s="2">
         <v>45265</v>
       </c>
-      <c r="AB1" s="2" t="n">
+      <c r="AB1" s="2">
         <v>45266</v>
       </c>
-      <c r="AC1" s="2" t="n">
+      <c r="AC1" s="2">
         <v>45267</v>
       </c>
-      <c r="AD1" s="2" t="n">
+      <c r="AD1" s="2">
         <v>45268</v>
       </c>
-      <c r="AE1" s="2" t="n">
+      <c r="AE1" s="2">
         <v>45271</v>
       </c>
-      <c r="AF1" s="2" t="n">
+      <c r="AF1" s="2">
         <v>45272</v>
       </c>
-      <c r="AG1" s="2" t="n">
+      <c r="AG1" s="2">
         <v>45273</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:33" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -644,8 +833,8 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -654,8 +843,8 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -664,8 +853,8 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -674,8 +863,8 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -684,8 +873,8 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:33" ht="25.2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -695,8 +884,8 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -706,8 +895,8 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -717,8 +906,8 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -728,200 +917,220 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:33" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:33" ht="25.2" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="0" t="s">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:33" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="B22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="4" t="s">
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="B23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="4" t="s">
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="25" spans="1:33" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="B26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="4" t="s">
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="B27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="4" t="s">
+    </row>
+    <row r="28" spans="1:33" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+    </row>
+    <row r="29" spans="1:33" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="AG29" s="15"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="B30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="4" t="s">
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="B31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>53</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
